--- a/Java/Java_Lecture_Plan.xlsx
+++ b/Java/Java_Lecture_Plan.xlsx
@@ -3,12 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F2F07-EB88-4AFD-AEEB-C77D6AF6624F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64AB85-DE64-4C22-A839-1169D75E5747}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Java" sheetId="1" r:id="rId1"/>
+    <sheet name="Servlet" sheetId="2" r:id="rId2"/>
+    <sheet name="JSP" sheetId="3" r:id="rId3"/>
+    <sheet name="Maven" sheetId="4" r:id="rId4"/>
+    <sheet name="Hibernate" sheetId="5" r:id="rId5"/>
+    <sheet name="Spring" sheetId="6" r:id="rId6"/>
+    <sheet name="TypeScript" sheetId="7" r:id="rId7"/>
+    <sheet name="Angular" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Lession -1</t>
   </si>
@@ -510,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -658,4 +665,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C76A85-91BC-475E-AB93-E8BCBD9EE41C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148EE68-63EB-44A2-A3BF-9D39D23E66E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0551E9-A190-4333-8D38-7B7E99604F0A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD9352D-F184-45BF-9E74-E019844B04DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FA2BD1-62A2-47BC-A50F-79D5E136F209}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3716E84-9EA5-4CDE-9988-5B68C9BED308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988EB0FE-AAEA-44FD-86B7-5ED62EAEA9FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Java/Java_Lecture_Plan.xlsx
+++ b/Java/Java_Lecture_Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64AB85-DE64-4C22-A839-1169D75E5747}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E38D9D-812E-46D6-9CFE-E97F02599F77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,15 @@
     <sheet name="JSP" sheetId="3" r:id="rId3"/>
     <sheet name="Maven" sheetId="4" r:id="rId4"/>
     <sheet name="Hibernate" sheetId="5" r:id="rId5"/>
-    <sheet name="Spring" sheetId="6" r:id="rId6"/>
+    <sheet name="Spring " sheetId="6" r:id="rId6"/>
     <sheet name="TypeScript" sheetId="7" r:id="rId7"/>
     <sheet name="Angular" sheetId="8" r:id="rId8"/>
+    <sheet name="Git" sheetId="10" r:id="rId9"/>
+    <sheet name="Jenkins" sheetId="11" r:id="rId10"/>
+    <sheet name="Docker" sheetId="12" r:id="rId11"/>
+    <sheet name="Hadoop" sheetId="13" r:id="rId12"/>
+    <sheet name="Spark" sheetId="14" r:id="rId13"/>
+    <sheet name="DS And Algo" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Lession -1</t>
   </si>
@@ -45,11 +51,6 @@
     <t>Lession-2</t>
   </si>
   <si>
-    <t xml:space="preserve">Classes,Objects,Instance Varible/Methods,New Operator ,Dot Operator,Method declaration,Method Calling,Constructors
-Static Variable Method
-</t>
-  </si>
-  <si>
     <t>Lession 3</t>
   </si>
   <si>
@@ -139,6 +140,165 @@
     <t>1)Simple Java Programs
 2)Primitive Data Types ,Array
 3)Control flow(if else/while/do while/switch case)</t>
+  </si>
+  <si>
+    <t>Servlet Lesson Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Classes,Objects,Instance Varible/Methods,New Operator ,Dot Operator,Method declaration,Method Calling,Constructors
+Static Variable Method
+</t>
+  </si>
+  <si>
+    <t>•Integrate Eclipse With Tomcat
+•Explain the Need of Servlet using Static and Dynamic WebSite
+•Basics of Servlet
+•Create a Simple Servlet and explain web.xml,welcome file list, get and post method 
+•Explain setContentType methos using text/plain and text/html</t>
+  </si>
+  <si>
+    <t>•Explain Servlet Life Cycle
+•Explain how this can be deployed in production by creating war file (Eclipse export)
+•Explain what happens when we deploy war in Tomcat(Extraction of war)
+•Talk about build tools like maven
+•Explain  &lt;load-on-startup&gt;1&lt;/load-on-startup&gt;</t>
+  </si>
+  <si>
+    <t>Session -1</t>
+  </si>
+  <si>
+    <t>Session -2</t>
+  </si>
+  <si>
+    <t>Sesson-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Explain HttpServletRequest  and how to send parameters in request using form
+•Explain Servlest interact with each other using RequestDispatcher  (forward and include method)
+•Explain HttpServletResponse  sendRedirect method
+•Difference between forward and sendRedirect
+•Explain ServletConfig 
+Explain ServletContext </t>
+  </si>
+  <si>
+    <t>Session-4</t>
+  </si>
+  <si>
+    <t>•Explain Attribute in Servlet
+•Explain Session Tracking in Servlets</t>
+  </si>
+  <si>
+    <t>Session-5</t>
+  </si>
+  <si>
+    <t>•Explain Servlet Filters
+•Connecting to Database from Servlet</t>
+  </si>
+  <si>
+    <t>JSP Lesson Plan</t>
+  </si>
+  <si>
+    <t>Seesion-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Explain JSP and how it is compiled to a Servlet by the Web Server
+•Create a Simple JSP and deploy It.
+•Explain Scriptlet tag
+•Explain Expression tag
+•Explain Declaration tag
+</t>
+  </si>
+  <si>
+    <t>Session-2</t>
+  </si>
+  <si>
+    <t>•Explain JSP Implicit Objects
+•Explain JSP directives</t>
+  </si>
+  <si>
+    <t>Session-3</t>
+  </si>
+  <si>
+    <t>•Explain Exception Handling in JSP
+•Explain JSP Action Tags
+•Java Bean in JSP
+•JSP setProperty and getProperty</t>
+  </si>
+  <si>
+    <t>Maven Lesson Plan</t>
+  </si>
+  <si>
+    <t>Session-1</t>
+  </si>
+  <si>
+    <t>•Explain Need of Maven.Create a Jar which is dependen on other Jar and Show how it very difficult to manage this
+•Create a Maven Project
+•Add Dependency
+•Show Build Process</t>
+  </si>
+  <si>
+    <t>Hibernate Lesson Plan</t>
+  </si>
+  <si>
+    <t>•Explain ORM and JPA
+•Need of Hibernate
+•A Simple Hibernate Application (XML Configuration)</t>
+  </si>
+  <si>
+    <t>•Hibernate Annotations
+•A simple Web App Using Hibernate
+•Collection Mapping in Hibernate</t>
+  </si>
+  <si>
+    <t>•Hibernate Lazy Collection
+•Component Mapping
+•HQL
+•Caching</t>
+  </si>
+  <si>
+    <t>Spring Lesson Plan</t>
+  </si>
+  <si>
+    <t>•IOC and Dependency Injection
+•A simple Spring Application
+•Dependency Injection By Constructor
+•Constructor Injection Of Collection</t>
+  </si>
+  <si>
+    <t>•Inheriting Bean in Spring
+•Dependency Injection By Setter
+•Autowiring</t>
+  </si>
+  <si>
+    <t>Seesion-3</t>
+  </si>
+  <si>
+    <t>•Spring AOP</t>
+  </si>
+  <si>
+    <t>Spring-4</t>
+  </si>
+  <si>
+    <t>•Spring Data</t>
+  </si>
+  <si>
+    <t>Spring-5</t>
+  </si>
+  <si>
+    <t>•Spring MVC</t>
+  </si>
+  <si>
+    <t>Spring-6</t>
+  </si>
+  <si>
+    <t>•Spring Boot</t>
+  </si>
+  <si>
+    <t>TypeScript Lesson Plan</t>
+  </si>
+  <si>
+    <t>•Explain What TypeScript is.
+•Setup IDE and Create a Sample Project</t>
   </si>
 </sst>
 </file>
@@ -207,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -235,6 +395,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,21 +682,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -556,106 +721,106 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" s="4" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:2" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -667,74 +832,389 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5580911-2B88-4A37-9E4B-AC530870DE82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6759F-030C-44A2-ADD7-C9DED0D88169}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E670A9-DDA1-4C56-B9FC-FC7F60DF8362}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C0860-B33D-46B4-990A-6E46FD3733BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D0412-ED46-4F7D-B9C7-958954F47922}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C76A85-91BC-475E-AB93-E8BCBD9EE41C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148EE68-63EB-44A2-A3BF-9D39D23E66E1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0551E9-A190-4333-8D38-7B7E99604F0A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="102" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD9352D-F184-45BF-9E74-E019844B04DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FA2BD1-62A2-47BC-A50F-79D5E136F209}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="145.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3716E84-9EA5-4CDE-9988-5B68C9BED308}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -744,11 +1224,23 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0347215F-E328-4B39-9A70-C05E95FC3BD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Java/Java_Lecture_Plan.xlsx
+++ b/Java/Java_Lecture_Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E38D9D-812E-46D6-9CFE-E97F02599F77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D3A6E0-E8DA-46AB-9CEE-F100D546AAB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -33,121 +33,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>Lession -1</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Introduction and features of Java
-2)Understading Platform independence feature of Java
-</t>
-  </si>
-  <si>
-    <t>1)JDK Installation
-2)IDE Installation Eclipse
-3)Hello World Compilation from CommandLine and from Eclipse</t>
-  </si>
-  <si>
     <t>Lession-2</t>
   </si>
   <si>
     <t>Lession 3</t>
   </si>
   <si>
-    <t>Undestanding Memory model of Java
-Java Garbage Collection</t>
-  </si>
-  <si>
-    <t>String Related Classes and Immutability</t>
-  </si>
-  <si>
     <t>Lesson 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Package
-Scopes(public private protected default)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Inheritance,Abstract Class,Interface</t>
-  </si>
-  <si>
-    <t>Polymorphism(Compile Time/Run Time)
-Overloading Overriding</t>
-  </si>
-  <si>
     <t>Lession 5</t>
   </si>
   <si>
-    <t>Exception Handling(Checked/Unchecked Exceptions)
-try with resource
-final/finally/finalize</t>
-  </si>
-  <si>
-    <t>Command Line arguments</t>
-  </si>
-  <si>
-    <t>File Handling</t>
-  </si>
-  <si>
     <t>Lesson 6</t>
   </si>
   <si>
-    <t>Collection
-List,Set,Map</t>
-  </si>
-  <si>
-    <t>HashCode,Equals</t>
-  </si>
-  <si>
     <t>Lesson 7</t>
   </si>
   <si>
-    <t>Muti Threading(CPU Cores In computer)
-Thead Communication
-synchronized/wait/notify/notifyall</t>
-  </si>
-  <si>
     <t>Lession 8</t>
   </si>
   <si>
-    <t>Multithreading continued
-Locks</t>
-  </si>
-  <si>
     <t>Lesson 9</t>
   </si>
   <si>
-    <t>JDBC</t>
-  </si>
-  <si>
     <t>Lession 10</t>
   </si>
   <si>
-    <t>Serialization,Comparable,Comparator</t>
-  </si>
-  <si>
     <t>Lession 11</t>
   </si>
   <si>
-    <t>Other topics depending upon candidate request</t>
-  </si>
-  <si>
     <t>JAVA Lesson Plan</t>
   </si>
   <si>
-    <t>1)Simple Java Programs
-2)Primitive Data Types ,Array
-3)Control flow(if else/while/do while/switch case)</t>
-  </si>
-  <si>
     <t>Servlet Lesson Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Classes,Objects,Instance Varible/Methods,New Operator ,Dot Operator,Method declaration,Method Calling,Constructors
-Static Variable Method
-</t>
   </si>
   <si>
     <t>•Integrate Eclipse With Tomcat
@@ -300,12 +224,77 @@
     <t>•Explain What TypeScript is.
 •Setup IDE and Create a Sample Project</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>•Introduction and features of Java
+•Understading Platform independence feature of Java
+•JDK Installation
+•IDE Installation Eclipse
+•Hello World Compilation from CommandLine and from Eclipse
+•Simple Java Programs
+•Primitive Data Types ,Array
+•Control flow(if else/while/do while/switch case)</t>
+  </si>
+  <si>
+    <t>•Classes,Objects,Instance Varible/Methods,New Operator ,Dot •Operator,Method declaration,Method Calling,Constructors
+•Static Variableand  Method
+•Package
+•Scopes(public private protected default)</t>
+  </si>
+  <si>
+    <t>•Undestanding Memory model of Java
+•Java Garbage Collection
+•String Related Classes and Immutability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•Inheritance,Abstract Class,Interface
+•Polymorphism(Compile Time/Run Time)
+•Overloading Overriding</t>
+  </si>
+  <si>
+    <t>•Exception Handling(Checked/Unchecked Exceptions)
+•try with resource
+•final/finally/finalize
+•Command Line arguments
+•File Handling</t>
+  </si>
+  <si>
+    <t>•Collection
+•List,Set,Map
+•HashCode,Equals</t>
+  </si>
+  <si>
+    <t>•Muti Threading(CPU Cores In computer)
+•Thead Communication
+•synchronized/wait/notify/notifyall</t>
+  </si>
+  <si>
+    <t>•Multithreading continued
+•Locks</t>
+  </si>
+  <si>
+    <t>•JDBC</t>
+  </si>
+  <si>
+    <t>•Serialization,Comparable,Comparator</t>
+  </si>
+  <si>
+    <t>•Other topics depending upon candidate request</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +313,13 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -389,16 +385,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -682,35 +685,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,109 +722,101 @@
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" s="4" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:2" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:2" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -906,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C76A85-91BC-475E-AB93-E8BCBD9EE41C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,49 +912,54 @@
     <col min="2" max="2" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>41</v>
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" s="4" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" s="4" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +976,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,34 +985,34 @@
     <col min="2" max="2" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>42</v>
+    <row r="1" spans="1:2" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1036,18 +1037,18 @@
     <col min="2" max="2" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>49</v>
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1072,34 +1073,34 @@
     <col min="2" max="2" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>52</v>
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1124,57 +1125,57 @@
     <col min="2" max="2" width="145.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1191,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,17 +1199,17 @@
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988EB0FE-AAEA-44FD-86B7-5ED62EAEA9FB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>

--- a/Java/Java_Lecture_Plan.xlsx
+++ b/Java/Java_Lecture_Plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D3A6E0-E8DA-46AB-9CEE-F100D546AAB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22004728-B978-4F49-A142-9AD774C23267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Lession -1</t>
   </si>
@@ -200,19 +200,10 @@
     <t>•Spring AOP</t>
   </si>
   <si>
-    <t>Spring-4</t>
-  </si>
-  <si>
     <t>•Spring Data</t>
   </si>
   <si>
-    <t>Spring-5</t>
-  </si>
-  <si>
     <t>•Spring MVC</t>
-  </si>
-  <si>
-    <t>Spring-6</t>
   </si>
   <si>
     <t>•Spring Boot</t>
@@ -288,6 +279,27 @@
   </si>
   <si>
     <t>•Other topics depending upon candidate request</t>
+  </si>
+  <si>
+    <t>Seesion-4</t>
+  </si>
+  <si>
+    <t>Seesion-5</t>
+  </si>
+  <si>
+    <t>Seesion-6</t>
+  </si>
+  <si>
+    <t>Seesion-7</t>
+  </si>
+  <si>
+    <t>•Spring Security</t>
+  </si>
+  <si>
+    <t>Seesion-8</t>
+  </si>
+  <si>
+    <t>•Spring REST API</t>
   </si>
 </sst>
 </file>
@@ -685,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -708,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -737,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8"/>
     </row>
@@ -747,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -759,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -770,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8"/>
     </row>
@@ -780,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -789,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -798,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -807,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -816,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1113,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FA2BD1-62A2-47BC-A50F-79D5E136F209}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,26 +1168,42 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
